--- a/data/trans_dic/P2C_R1-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P2C_R1-Habitat-trans_dic.xlsx
@@ -714,34 +714,34 @@
         <v>0</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.007560496399462166</v>
+        <v>0.00745594110341141</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1813190060764091</v>
+        <v>0.1832447140498399</v>
       </c>
       <c r="G5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.003991175920301593</v>
+        <v>0.003976715565901113</v>
       </c>
       <c r="I5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.2163688539258623</v>
+        <v>0.2165203575123087</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.001133999676289574</v>
+        <v>0.001232589039475686</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.003269149509087074</v>
+        <v>0.003155046433222881</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.004717709205579125</v>
+        <v>0.004921230292586215</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.2178906905139802</v>
+        <v>0.2180451511271653</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.01684135083280108</v>
+        <v>0.01698602365679222</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.01613091248990487</v>
+        <v>0.01419502587522429</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.03384306068505554</v>
+        <v>0.03376204421365075</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.3394392804020266</v>
+        <v>0.3348684626290813</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.01628198610779851</v>
+        <v>0.01644898138078023</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.02696674884940064</v>
+        <v>0.02515020248848903</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.01258886525662478</v>
+        <v>0.01265117423852683</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.3247586121333921</v>
+        <v>0.3205848138455143</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.010926266665711</v>
+        <v>0.01106038683921426</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.0153905458479293</v>
+        <v>0.01586472320181794</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.01929890943681103</v>
+        <v>0.01837700517622652</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.3065265676101242</v>
+        <v>0.3078163448956561</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.00181003049580243</v>
+        <v>0.001801241784183629</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.001456453620841798</v>
+        <v>0.001448961755165958</v>
       </c>
       <c r="E8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.08806369714888726</v>
+        <v>0.08600943455761245</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.005000465828148117</v>
+        <v>0.004740717764898953</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.001473425727381994</v>
+        <v>0.001465510817490161</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.002888424295516698</v>
+        <v>0.002883747582809549</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.115654610676051</v>
+        <v>0.11673084051919</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.004292964388239606</v>
+        <v>0.004830620755023034</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.002226560415067834</v>
+        <v>0.00272878376040939</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.002580931395289949</v>
+        <v>0.002713518052454594</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1124038031953701</v>
+        <v>0.1131313314985147</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.0243889070300779</v>
+        <v>0.02063427891457994</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.01440332920492174</v>
+        <v>0.01442891925415125</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.01711337858450354</v>
+        <v>0.01739949573251166</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1995547896136017</v>
+        <v>0.1957988436957886</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.02266157673019196</v>
+        <v>0.02393009601325388</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.01564132792728144</v>
+        <v>0.01524220707065833</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.01696427966575896</v>
+        <v>0.01651773783737506</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1801130914750106</v>
+        <v>0.1798862153427581</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.01757524467069652</v>
+        <v>0.01827908233383011</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.01141713668227005</v>
+        <v>0.01183328806358855</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.01251930376510832</v>
+        <v>0.01235132608198514</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1728873468024873</v>
+        <v>0.1705438503185649</v>
       </c>
     </row>
     <row r="10">
@@ -981,37 +981,37 @@
       </c>
       <c r="C11" s="5" t="inlineStr"/>
       <c r="D11" s="5" t="n">
-        <v>0.004005580199380321</v>
+        <v>0.002079598653336864</v>
       </c>
       <c r="E11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.08414699639363063</v>
+        <v>0.08364883138068879</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.002052329940904861</v>
+        <v>0.002059489918644487</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.003946656315014672</v>
+        <v>0.003964097032852202</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.004493268780442457</v>
+        <v>0.004843702418431462</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.07599253990183583</v>
+        <v>0.076504762533028</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.001111552826239333</v>
+        <v>0.001105897804219439</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.00501276353276635</v>
+        <v>0.005217092034426721</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.004371136963113556</v>
+        <v>0.004347003841998311</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.09134985144149305</v>
+        <v>0.09064839154612207</v>
       </c>
     </row>
     <row r="12">
@@ -1023,37 +1023,37 @@
       </c>
       <c r="C12" s="5" t="inlineStr"/>
       <c r="D12" s="5" t="n">
-        <v>0.02821560315139283</v>
+        <v>0.02792544964235662</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.01728024176275093</v>
+        <v>0.01677755661555634</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2203007968215749</v>
+        <v>0.2333360123079063</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.01946790435604111</v>
+        <v>0.02012021476396924</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.026984900828119</v>
+        <v>0.026480239320326</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.02830906424643691</v>
+        <v>0.02927866084710844</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1623054053688152</v>
+        <v>0.1575607563868008</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.01078408185044166</v>
+        <v>0.009729493789170844</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.02184140873601174</v>
+        <v>0.0209093480181943</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.01729957226377472</v>
+        <v>0.01808710293056193</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1742567351850787</v>
+        <v>0.1739560480309956</v>
       </c>
     </row>
     <row r="13">
@@ -1077,7 +1077,7 @@
         <v>0.01160657766640623</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.1158248482615158</v>
+        <v>0.1158248482615159</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.007200165517077155</v>
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.00335118205732781</v>
+        <v>0.003353194260159782</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.003561496827995364</v>
+        <v>0.003590161181787138</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.004345389543168206</v>
+        <v>0.005390470367603253</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.07337505323920482</v>
+        <v>0.07412711982404364</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.001799753178566886</v>
+        <v>0.001507276160843505</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.009415249515026055</v>
+        <v>0.009526603509014539</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.006108238919884912</v>
+        <v>0.006235143352925605</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1262118487348343</v>
+        <v>0.125494487994905</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.003749099105754326</v>
+        <v>0.003792363180955426</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.008572227140880436</v>
+        <v>0.008620347647389844</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.007287687868253521</v>
+        <v>0.007034775581627268</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1154177176333473</v>
+        <v>0.1156960462307759</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.01927684190961209</v>
+        <v>0.01876431002545013</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.02470456899927644</v>
+        <v>0.02470017198414574</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.02497697475831744</v>
+        <v>0.02411565549023222</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1703148789612379</v>
+        <v>0.17181926905608</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.01820741607707489</v>
+        <v>0.01883613022372699</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.03035771719034495</v>
+        <v>0.02975701078738851</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.02644576242415421</v>
+        <v>0.02518366262326273</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2088394481604867</v>
+        <v>0.2083612365867384</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.01450229796963558</v>
+        <v>0.01463830808988862</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.02350384832149116</v>
+        <v>0.02190455437573954</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.0212775267559991</v>
+        <v>0.02121603693667953</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.17964080815783</v>
+        <v>0.1791155975244569</v>
       </c>
     </row>
     <row r="16">
@@ -1237,7 +1237,7 @@
         <v>0.009489081278261291</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.1602322958500629</v>
+        <v>0.1602322958500628</v>
       </c>
     </row>
     <row r="17">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.002705986570047548</v>
+        <v>0.002882295472978949</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.004505239760208592</v>
+        <v>0.004415000304714328</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.005405364468657178</v>
+        <v>0.00575321301657449</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.122620093383172</v>
+        <v>0.1200841395602265</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.004310028726951489</v>
+        <v>0.004449152878521468</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.007847054920639789</v>
+        <v>0.007644978330669619</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.006008423819901002</v>
+        <v>0.006019305364634413</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1465834285035847</v>
+        <v>0.1469421461275396</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.004556869694593435</v>
+        <v>0.004607525325048698</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.00686581683101294</v>
+        <v>0.006961567379129131</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.006941344259526736</v>
+        <v>0.006890829571809961</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1435625940946736</v>
+        <v>0.1434546527711997</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.01049363282593224</v>
+        <v>0.01096341272816494</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.01315199217844607</v>
+        <v>0.01333917488657215</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.01461833447142761</v>
+        <v>0.01498350892035928</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1837095142697129</v>
+        <v>0.1824120451775419</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.01256009788601419</v>
+        <v>0.01275948252097032</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.0170221942576053</v>
+        <v>0.01675089250980118</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.01482713500032567</v>
+        <v>0.01470027436950417</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1867976052128873</v>
+        <v>0.1874661648998225</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.01008152575337148</v>
+        <v>0.01009423674736567</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.01327400847965503</v>
+        <v>0.01314953955671335</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.0131159812803208</v>
+        <v>0.01308625515934571</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1782839354945552</v>
+        <v>0.1801460764318168</v>
       </c>
     </row>
     <row r="19">
@@ -1602,34 +1602,34 @@
         <v>0</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>3009</v>
+        <v>2967</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>19688</v>
+        <v>19897</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>2054</v>
+        <v>2046</v>
       </c>
       <c r="I6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>31967</v>
+        <v>31989</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>1038</v>
+        <v>1128</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>3227</v>
+        <v>3114</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>3984</v>
+        <v>4156</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>55850</v>
+        <v>55890</v>
       </c>
     </row>
     <row r="7">
@@ -1640,40 +1640,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>7126</v>
+        <v>7187</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>7622</v>
+        <v>6707</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>13468</v>
+        <v>13436</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>36857</v>
+        <v>36360</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>8011</v>
+        <v>8093</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>13877</v>
+        <v>12942</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>5621</v>
+        <v>5648</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>47980</v>
+        <v>47364</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>9999</v>
+        <v>10122</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>15192</v>
+        <v>15660</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>16297</v>
+        <v>15518</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>78570</v>
+        <v>78900</v>
       </c>
     </row>
     <row r="8">
@@ -1776,40 +1776,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>1062</v>
+        <v>1056</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>964</v>
+        <v>959</v>
       </c>
       <c r="E10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>17046</v>
+        <v>16648</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>3251</v>
+        <v>3082</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>1100</v>
+        <v>1095</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>2071</v>
+        <v>2068</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>31735</v>
+        <v>32030</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>5309</v>
+        <v>5974</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>3136</v>
+        <v>3843</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>3354</v>
+        <v>3526</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>52600</v>
+        <v>52941</v>
       </c>
     </row>
     <row r="11">
@@ -1820,40 +1820,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>14304</v>
+        <v>12102</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>9528</v>
+        <v>9545</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>9966</v>
+        <v>10132</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>38626</v>
+        <v>37899</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>14734</v>
+        <v>15558</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>11682</v>
+        <v>11384</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>12164</v>
+        <v>11843</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>49422</v>
+        <v>49360</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>21735</v>
+        <v>22605</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>16080</v>
+        <v>16666</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>16267</v>
+        <v>16049</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>80904</v>
+        <v>79807</v>
       </c>
     </row>
     <row r="12">
@@ -1957,37 +1957,37 @@
       </c>
       <c r="C14" s="6" t="inlineStr"/>
       <c r="D14" s="6" t="n">
-        <v>1831</v>
+        <v>951</v>
       </c>
       <c r="E14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>9821</v>
+        <v>9763</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>977</v>
+        <v>981</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>2099</v>
+        <v>2108</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>2306</v>
+        <v>2486</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>11845</v>
+        <v>11925</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>978</v>
+        <v>973</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>4957</v>
+        <v>5159</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>4063</v>
+        <v>4040</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>24901</v>
+        <v>24710</v>
       </c>
     </row>
     <row r="15">
@@ -1999,37 +1999,37 @@
       </c>
       <c r="C15" s="6" t="inlineStr"/>
       <c r="D15" s="6" t="n">
-        <v>12901</v>
+        <v>12768</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>7191</v>
+        <v>6982</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>25713</v>
+        <v>27234</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>9269</v>
+        <v>9579</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>14348</v>
+        <v>14080</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>14531</v>
+        <v>15029</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>25299</v>
+        <v>24560</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>9484</v>
+        <v>8557</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>21600</v>
+        <v>20678</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>16079</v>
+        <v>16811</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>47501</v>
+        <v>47419</v>
       </c>
     </row>
     <row r="16">
@@ -2132,40 +2132,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>1666</v>
+        <v>1667</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>1945</v>
+        <v>1960</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>2175</v>
+        <v>2698</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>10417</v>
+        <v>10523</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1229</v>
+        <v>1030</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>6813</v>
+        <v>6894</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>4021</v>
+        <v>4104</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>26716</v>
+        <v>26564</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>4425</v>
+        <v>4476</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>10884</v>
+        <v>10945</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>8444</v>
+        <v>8151</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>40816</v>
+        <v>40915</v>
       </c>
     </row>
     <row r="19">
@@ -2176,40 +2176,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>9585</v>
+        <v>9330</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>13490</v>
+        <v>13487</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>12500</v>
+        <v>12069</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>24179</v>
+        <v>24392</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>12437</v>
+        <v>12866</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>21968</v>
+        <v>21534</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>17407</v>
+        <v>16576</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>44206</v>
+        <v>44104</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>17117</v>
+        <v>17278</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>29843</v>
+        <v>27812</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>24654</v>
+        <v>24583</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>63528</v>
+        <v>63342</v>
       </c>
     </row>
     <row r="20">
@@ -2312,40 +2312,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>5169</v>
+        <v>5506</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>9629</v>
+        <v>9436</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>10254</v>
+        <v>10913</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>68768</v>
+        <v>67346</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>9919</v>
+        <v>10239</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>19750</v>
+        <v>19241</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>14030</v>
+        <v>14055</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>115755</v>
+        <v>116038</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>19192</v>
+        <v>19405</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>31955</v>
+        <v>32400</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>29375</v>
+        <v>29162</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>193883</v>
+        <v>193737</v>
       </c>
     </row>
     <row r="23">
@@ -2356,40 +2356,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>20045</v>
+        <v>20943</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>28110</v>
+        <v>28510</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>27730</v>
+        <v>28423</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>103029</v>
+        <v>102301</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>28905</v>
+        <v>29364</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>42842</v>
+        <v>42159</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>34622</v>
+        <v>34325</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>147512</v>
+        <v>148040</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>42459</v>
+        <v>42513</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>61779</v>
+        <v>61200</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>55506</v>
+        <v>55380</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>240774</v>
+        <v>243289</v>
       </c>
     </row>
     <row r="24">
